--- a/medicine/Maladies infectieuses/Virus_Absettarov/Virus_Absettarov.xlsx
+++ b/medicine/Maladies infectieuses/Virus_Absettarov/Virus_Absettarov.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le virus Absettarov (ABSV) est une souche (Far Eastern subtype) de virus du genre Flavivirus, transmise par des tiques et responsable d'encéphalites à tiques.
 Aucun traitement n'est disponible, mais un vaccin efficace est disponible.
@@ -512,7 +524,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il cause une maladie rarement symptomatique, souvent bénigne : syndrome grippal puis maux de tête, raideur de la nuque et vomissements résolutifs, parfois suivi d'une seconde phase avec fièvre et signes de méningite simple ou associée à une atteinte cérébrale. 
 </t>
@@ -543,7 +557,9 @@
           <t>Écoépidémiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le réservoir animal est a priori large (espèces porteuses variées) et les piqûres de tiques seraient la voie de transmission (unique ou principale) pour l'homme.
 </t>
@@ -574,10 +590,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce virus a été isolé en 1951 à Leningrad dans le sang d'un enfant de 3 ans victime d'une fièvre biphasique et de signes de méningite. Il a été trouvé en Finlande, Pologne et ancienne Tchécoslovaquie, en Autriche, Bulgarie et dans l'ouest de l'URSS[1].
-En 2018 il est selon l'INRS détecté  en Scandinavie, Europe centrale et orientale (données 2008)[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce virus a été isolé en 1951 à Leningrad dans le sang d'un enfant de 3 ans victime d'une fièvre biphasique et de signes de méningite. Il a été trouvé en Finlande, Pologne et ancienne Tchécoslovaquie, en Autriche, Bulgarie et dans l'ouest de l'URSS.
+En 2018 il est selon l'INRS détecté  en Scandinavie, Europe centrale et orientale (données 2008).
 </t>
         </is>
       </c>
